--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H2">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I2">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J2">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N2">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O2">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P2">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q2">
-        <v>0.1125312428255556</v>
+        <v>1.512858296444445</v>
       </c>
       <c r="R2">
-        <v>1.01278118543</v>
+        <v>13.615724668</v>
       </c>
       <c r="S2">
-        <v>0.0004067227725197435</v>
+        <v>0.005507474852815576</v>
       </c>
       <c r="T2">
-        <v>0.0004067227725197435</v>
+        <v>0.005507474852815575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H3">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I3">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J3">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.146943</v>
       </c>
       <c r="O3">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P3">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q3">
-        <v>1.709450362110556</v>
+        <v>3.404949437007223</v>
       </c>
       <c r="R3">
-        <v>15.385053258995</v>
+        <v>30.644544933065</v>
       </c>
       <c r="S3">
-        <v>0.006178483177692142</v>
+        <v>0.0123955253730629</v>
       </c>
       <c r="T3">
-        <v>0.006178483177692143</v>
+        <v>0.0123955253730629</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H4">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I4">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J4">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N4">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O4">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P4">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q4">
-        <v>3.262905253914445</v>
+        <v>5.837643983736667</v>
       </c>
       <c r="R4">
-        <v>29.36614728523</v>
+        <v>52.53879585363001</v>
       </c>
       <c r="S4">
-        <v>0.01179315040000553</v>
+        <v>0.02125161194256006</v>
       </c>
       <c r="T4">
-        <v>0.01179315040000553</v>
+        <v>0.02125161194256006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H5">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I5">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J5">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N5">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O5">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P5">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q5">
-        <v>14.56671196756167</v>
+        <v>16.28637377495945</v>
       </c>
       <c r="R5">
-        <v>131.100407708055</v>
+        <v>146.577363974635</v>
       </c>
       <c r="S5">
-        <v>0.05264860965880797</v>
+        <v>0.05928962032990912</v>
       </c>
       <c r="T5">
-        <v>0.05264860965880797</v>
+        <v>0.05928962032990911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H6">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I6">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J6">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N6">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O6">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P6">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q6">
-        <v>0.6772457553605556</v>
+        <v>0.6993169663011113</v>
       </c>
       <c r="R6">
-        <v>6.095211798245001</v>
+        <v>6.29385269671</v>
       </c>
       <c r="S6">
-        <v>0.002447775963200496</v>
+        <v>0.002545823766245963</v>
       </c>
       <c r="T6">
-        <v>0.002447775963200495</v>
+        <v>0.002545823766245962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H7">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I7">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J7">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N7">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O7">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P7">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q7">
-        <v>2.692132100521111</v>
+        <v>6.458126664201669</v>
       </c>
       <c r="R7">
-        <v>24.22918890469</v>
+        <v>58.12313997781501</v>
       </c>
       <c r="S7">
-        <v>0.009730199404362094</v>
+        <v>0.02351044396093217</v>
       </c>
       <c r="T7">
-        <v>0.009730199404362096</v>
+        <v>0.02351044396093217</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H8">
         <v>1.354768</v>
       </c>
       <c r="I8">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J8">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N8">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O8">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P8">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q8">
-        <v>0.01136529928177778</v>
+        <v>0.07670997475555556</v>
       </c>
       <c r="R8">
-        <v>0.102287693536</v>
+        <v>0.6903897728</v>
       </c>
       <c r="S8">
-        <v>4.107771244975127E-05</v>
+        <v>0.0002792583138283726</v>
       </c>
       <c r="T8">
-        <v>4.107771244975127E-05</v>
+        <v>0.0002792583138283726</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H9">
         <v>1.354768</v>
       </c>
       <c r="I9">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J9">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.146943</v>
       </c>
       <c r="O9">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P9">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q9">
         <v>0.1726490749137778</v>
@@ -1013,10 +1013,10 @@
         <v>1.553841674224</v>
       </c>
       <c r="S9">
-        <v>0.0006240072415334041</v>
+        <v>0.0006285191684404534</v>
       </c>
       <c r="T9">
-        <v>0.0006240072415334042</v>
+        <v>0.0006285191684404534</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H10">
         <v>1.354768</v>
       </c>
       <c r="I10">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J10">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N10">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O10">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P10">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q10">
-        <v>0.3295431011662223</v>
+        <v>0.2959996476053333</v>
       </c>
       <c r="R10">
-        <v>2.965887910496</v>
+        <v>2.663996828448</v>
       </c>
       <c r="S10">
-        <v>0.001191070856462999</v>
+        <v>0.001077569934646229</v>
       </c>
       <c r="T10">
-        <v>0.001191070856462999</v>
+        <v>0.001077569934646229</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H11">
         <v>1.354768</v>
       </c>
       <c r="I11">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J11">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N11">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O11">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P11">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q11">
-        <v>1.471191794437334</v>
+        <v>0.8258059092995557</v>
       </c>
       <c r="R11">
-        <v>13.240726149936</v>
+        <v>7.432253183696</v>
       </c>
       <c r="S11">
-        <v>0.005317342904222871</v>
+        <v>0.003006299591615994</v>
       </c>
       <c r="T11">
-        <v>0.005317342904222872</v>
+        <v>0.003006299591615994</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H12">
         <v>1.354768</v>
       </c>
       <c r="I12">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J12">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N12">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O12">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P12">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q12">
-        <v>0.06839967731377779</v>
+        <v>0.03545909551288889</v>
       </c>
       <c r="R12">
-        <v>0.6155970958240001</v>
+        <v>0.319131859616</v>
       </c>
       <c r="S12">
-        <v>0.0002472176232838843</v>
+        <v>0.0001290868267700924</v>
       </c>
       <c r="T12">
-        <v>0.0002472176232838843</v>
+        <v>0.0001290868267700924</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H13">
         <v>1.354768</v>
       </c>
       <c r="I13">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J13">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N13">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O13">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P13">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q13">
-        <v>0.2718968195875556</v>
+        <v>0.3274614248693334</v>
       </c>
       <c r="R13">
-        <v>2.447071376288</v>
+        <v>2.947152823824</v>
       </c>
       <c r="S13">
-        <v>0.0009827193366501871</v>
+        <v>0.001192104750969476</v>
       </c>
       <c r="T13">
-        <v>0.0009827193366501873</v>
+        <v>0.001192104750969476</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H14">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I14">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J14">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N14">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O14">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P14">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q14">
-        <v>0.1563643316028889</v>
+        <v>1.321843059911111</v>
       </c>
       <c r="R14">
-        <v>1.407278984426</v>
+        <v>11.8965875392</v>
       </c>
       <c r="S14">
-        <v>0.0005651491343724928</v>
+        <v>0.004812094714315878</v>
       </c>
       <c r="T14">
-        <v>0.0005651491343724928</v>
+        <v>0.004812094714315878</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H15">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I15">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J15">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.146943</v>
       </c>
       <c r="O15">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P15">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q15">
-        <v>2.375314237789889</v>
+        <v>2.975036586859556</v>
       </c>
       <c r="R15">
-        <v>21.377828140109</v>
+        <v>26.775329281736</v>
       </c>
       <c r="S15">
-        <v>0.008585121501742867</v>
+        <v>0.01083045201711459</v>
       </c>
       <c r="T15">
-        <v>0.008585121501742869</v>
+        <v>0.01083045201711459</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H16">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I16">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J16">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N16">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O16">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P16">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q16">
-        <v>4.533869761865112</v>
+        <v>5.100576309274667</v>
       </c>
       <c r="R16">
-        <v>40.804827856786</v>
+        <v>45.905186783472</v>
       </c>
       <c r="S16">
-        <v>0.01638680986264228</v>
+        <v>0.01856835886362783</v>
       </c>
       <c r="T16">
-        <v>0.01638680986264228</v>
+        <v>0.01856835886362783</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H17">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I17">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J17">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N17">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O17">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P17">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q17">
-        <v>20.24072713735567</v>
+        <v>14.23003740412711</v>
       </c>
       <c r="R17">
-        <v>182.166544236201</v>
+        <v>128.070336637144</v>
       </c>
       <c r="S17">
-        <v>0.07315625823028196</v>
+        <v>0.05180364436117104</v>
       </c>
       <c r="T17">
-        <v>0.07315625823028196</v>
+        <v>0.05180364436117104</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H18">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I18">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J18">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N18">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O18">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P18">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q18">
-        <v>0.9410460349398889</v>
+        <v>0.6110203981137778</v>
       </c>
       <c r="R18">
-        <v>8.469414314459</v>
+        <v>5.499183583023999</v>
       </c>
       <c r="S18">
-        <v>0.003401231896041431</v>
+        <v>0.002224385115960904</v>
       </c>
       <c r="T18">
-        <v>0.003401231896041431</v>
+        <v>0.002224385115960904</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H19">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I19">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J19">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N19">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O19">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P19">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q19">
-        <v>3.740769460239778</v>
+        <v>5.642716129570667</v>
       </c>
       <c r="R19">
-        <v>33.666925142158</v>
+        <v>50.784445166136</v>
       </c>
       <c r="S19">
-        <v>0.01352029967876963</v>
+        <v>0.02054198814140456</v>
       </c>
       <c r="T19">
-        <v>0.01352029967876964</v>
+        <v>0.02054198814140456</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H20">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I20">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J20">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N20">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O20">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P20">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q20">
-        <v>0.09762851545066666</v>
+        <v>0.661217437688889</v>
       </c>
       <c r="R20">
-        <v>0.878656639056</v>
+        <v>5.950956939200001</v>
       </c>
       <c r="S20">
-        <v>0.0003528596990849569</v>
+        <v>0.00240712459248389</v>
       </c>
       <c r="T20">
-        <v>0.0003528596990849569</v>
+        <v>0.00240712459248389</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H21">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I21">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J21">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.146943</v>
       </c>
       <c r="O21">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P21">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q21">
-        <v>1.483064586322667</v>
+        <v>1.488184284998445</v>
       </c>
       <c r="R21">
-        <v>13.347581276904</v>
+        <v>13.393658564986</v>
       </c>
       <c r="S21">
-        <v>0.005360254852157529</v>
+        <v>0.005417650513102923</v>
       </c>
       <c r="T21">
-        <v>0.00536025485215753</v>
+        <v>0.005417650513102923</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H22">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I22">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J22">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N22">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O22">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P22">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q22">
-        <v>2.830792480357333</v>
+        <v>2.551429969441334</v>
       </c>
       <c r="R22">
-        <v>25.477132323216</v>
+        <v>22.962869724972</v>
       </c>
       <c r="S22">
-        <v>0.01023136097255924</v>
+        <v>0.009288336143869751</v>
       </c>
       <c r="T22">
-        <v>0.01023136097255924</v>
+        <v>0.009288336143869751</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H23">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I23">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J23">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N23">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O23">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P23">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q23">
-        <v>12.637614485384</v>
+        <v>7.118204237654889</v>
       </c>
       <c r="R23">
-        <v>113.738530368456</v>
+        <v>64.063838138894</v>
       </c>
       <c r="S23">
-        <v>0.04567625374491793</v>
+        <v>0.02591341894229364</v>
       </c>
       <c r="T23">
-        <v>0.04567625374491793</v>
+        <v>0.02591341894229364</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H24">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I24">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J24">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N24">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O24">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P24">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q24">
-        <v>0.5875568067226666</v>
+        <v>0.3056469820582223</v>
       </c>
       <c r="R24">
-        <v>5.288011260504</v>
+        <v>2.750822838524</v>
       </c>
       <c r="S24">
-        <v>0.002123612318167874</v>
+        <v>0.001112690508741542</v>
       </c>
       <c r="T24">
-        <v>0.002123612318167874</v>
+        <v>0.001112690508741542</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H25">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I25">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J25">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N25">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O25">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P25">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q25">
-        <v>2.335607905605333</v>
+        <v>2.822621242987334</v>
       </c>
       <c r="R25">
-        <v>21.020471150448</v>
+        <v>25.403591186886</v>
       </c>
       <c r="S25">
-        <v>0.008441610516640469</v>
+        <v>0.01027559259932752</v>
       </c>
       <c r="T25">
-        <v>0.008441610516640472</v>
+        <v>0.01027559259932752</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H26">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I26">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J26">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N26">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O26">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P26">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q26">
-        <v>0.8116366931291112</v>
+        <v>7.388451114488889</v>
       </c>
       <c r="R26">
-        <v>7.304730238162001</v>
+        <v>66.4960600304</v>
       </c>
       <c r="S26">
-        <v>0.002933506445138638</v>
+        <v>0.02689723737506638</v>
       </c>
       <c r="T26">
-        <v>0.002933506445138638</v>
+        <v>0.02689723737506638</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H27">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I27">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J27">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.146943</v>
       </c>
       <c r="O27">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P27">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q27">
-        <v>12.32948827484811</v>
+        <v>16.62898800354245</v>
       </c>
       <c r="R27">
-        <v>110.965394473633</v>
+        <v>149.660892031882</v>
       </c>
       <c r="S27">
-        <v>0.04456259016591143</v>
+        <v>0.06053688800367102</v>
       </c>
       <c r="T27">
-        <v>0.04456259016591144</v>
+        <v>0.06053688800367102</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H28">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I28">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J28">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N28">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O28">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P28">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q28">
-        <v>23.53385214438689</v>
+        <v>28.50970728652933</v>
       </c>
       <c r="R28">
-        <v>211.804669299482</v>
+        <v>256.587365578764</v>
       </c>
       <c r="S28">
-        <v>0.08505863217980052</v>
+        <v>0.1037879729454617</v>
       </c>
       <c r="T28">
-        <v>0.08505863217980052</v>
+        <v>0.1037879729454617</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H29">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I29">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J29">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N29">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O29">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P29">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q29">
-        <v>105.0630707904263</v>
+        <v>79.53889452263088</v>
       </c>
       <c r="R29">
-        <v>945.5676371138371</v>
+        <v>715.850050703678</v>
       </c>
       <c r="S29">
-        <v>0.3797304852267752</v>
+        <v>0.2895568358475314</v>
       </c>
       <c r="T29">
-        <v>0.3797304852267752</v>
+        <v>0.2895568358475314</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H30">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I30">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J30">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N30">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O30">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P30">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q30">
-        <v>4.884665729398112</v>
+        <v>3.415302828554222</v>
       </c>
       <c r="R30">
-        <v>43.961991564583</v>
+        <v>30.737725456988</v>
       </c>
       <c r="S30">
-        <v>0.01765469516206036</v>
+        <v>0.0124332163079776</v>
       </c>
       <c r="T30">
-        <v>0.01765469516206036</v>
+        <v>0.0124332163079776</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H31">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I31">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J31">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N31">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O31">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P31">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q31">
-        <v>19.41712488611622</v>
+        <v>31.54000163913133</v>
       </c>
       <c r="R31">
-        <v>174.754123975046</v>
+        <v>283.860014752182</v>
       </c>
       <c r="S31">
-        <v>0.07017950455133355</v>
+        <v>0.1148195877257805</v>
       </c>
       <c r="T31">
-        <v>0.07017950455133357</v>
+        <v>0.1148195877257805</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H32">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I32">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J32">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M32">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N32">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O32">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P32">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q32">
-        <v>0.1629325693691111</v>
+        <v>1.1903435544</v>
       </c>
       <c r="R32">
-        <v>1.466393124322</v>
+        <v>10.7130919896</v>
       </c>
       <c r="S32">
-        <v>0.000588888780427838</v>
+        <v>0.004333378220205207</v>
       </c>
       <c r="T32">
-        <v>0.000588888780427838</v>
+        <v>0.004333378220205207</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H33">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I33">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J33">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.146943</v>
       </c>
       <c r="O33">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P33">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q33">
-        <v>2.475091652008111</v>
+        <v>2.679074190177</v>
       </c>
       <c r="R33">
-        <v>22.275824868073</v>
+        <v>24.111667711593</v>
       </c>
       <c r="S33">
-        <v>0.008945747986679105</v>
+        <v>0.009753017692340698</v>
       </c>
       <c r="T33">
-        <v>0.008945747986679107</v>
+        <v>0.009753017692340698</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H34">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I34">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J34">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N34">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O34">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P34">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q34">
-        <v>4.72431942702689</v>
+        <v>4.593161107854</v>
       </c>
       <c r="R34">
-        <v>42.518874843242</v>
+        <v>41.338449970686</v>
       </c>
       <c r="S34">
-        <v>0.01707515395176011</v>
+        <v>0.01672114259206522</v>
       </c>
       <c r="T34">
-        <v>0.01707515395176011</v>
+        <v>0.01672114259206522</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H35">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I35">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J35">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N35">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O35">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P35">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q35">
-        <v>21.09095881766633</v>
+        <v>12.814405746483</v>
       </c>
       <c r="R35">
-        <v>189.818629358997</v>
+        <v>115.329651718347</v>
       </c>
       <c r="S35">
-        <v>0.07622925891539963</v>
+        <v>0.04665011757439384</v>
       </c>
       <c r="T35">
-        <v>0.07622925891539964</v>
+        <v>0.04665011757439384</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H36">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I36">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J36">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N36">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O36">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P36">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q36">
-        <v>0.9805756005581112</v>
+        <v>0.550234906518</v>
       </c>
       <c r="R36">
-        <v>8.825180405023001</v>
+        <v>4.952114158662</v>
       </c>
       <c r="S36">
-        <v>0.003544103992012749</v>
+        <v>0.002003098980196191</v>
       </c>
       <c r="T36">
-        <v>0.003544103992012749</v>
+        <v>0.002003098980196191</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H37">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I37">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J37">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N37">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O37">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P37">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q37">
-        <v>3.897904166036222</v>
+        <v>5.081367809727</v>
       </c>
       <c r="R37">
-        <v>35.081137494326</v>
+        <v>45.732310287543</v>
       </c>
       <c r="S37">
-        <v>0.01408823318413113</v>
+        <v>0.01849843141009981</v>
       </c>
       <c r="T37">
-        <v>0.01408823318413114</v>
+        <v>0.01849843141009981</v>
       </c>
     </row>
   </sheetData>
